--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-datasource-route/hzero-datasource-route-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-datasource-route/hzero-datasource-route-menu.xlsx
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="269">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2160,7 +2160,7 @@
     <t>hzero.site.dev.personality.datasource.route</t>
   </si>
   <si>
-    <t>数据源路由规则</t>
+    <t>数据源路由</t>
   </si>
   <si>
     <t>Data source routing rules</t>
@@ -2187,6 +2187,135 @@
     <t>iam_menu-11</t>
   </si>
   <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.button.create</t>
+  </si>
+  <si>
+    <t>数据源应用配置-数据源-新建</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.button.create</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.button.edit</t>
+  </si>
+  <si>
+    <t>数据源应用配置-编辑</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.button.edit</t>
+  </si>
+  <si>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.button.target</t>
+  </si>
+  <si>
+    <t>数据源应用配置-删除</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.button.target</t>
+  </si>
+  <si>
+    <t>iam_menu-14</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.save</t>
+  </si>
+  <si>
+    <t>数据源应用配置-保存</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.detail.-dsRouteId.save</t>
+  </si>
+  <si>
+    <t>iam_menu-15</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.edit</t>
+  </si>
+  <si>
+    <t>数据源路由规则-编辑</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.edit</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.enabled</t>
+  </si>
+  <si>
+    <t>数据源路由规则-启用</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.enabled</t>
+  </si>
+  <si>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.target</t>
+  </si>
+  <si>
+    <t>数据源路由规则-删除</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.target</t>
+  </si>
+  <si>
+    <t>iam_menu-18</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.unEnabled</t>
+  </si>
+  <si>
+    <t>数据源路由规则-禁用</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.button.unEnabled</t>
+  </si>
+  <si>
+    <t>iam_menu-19</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.create</t>
+  </si>
+  <si>
+    <t>数据源路由规则-新建</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.create</t>
+  </si>
+  <si>
+    <t>iam_menu-20</t>
+  </si>
+  <si>
+    <t>hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.push</t>
+  </si>
+  <si>
+    <t>数据源路由规则-数据源推送</t>
+  </si>
+  <si>
+    <t>hzero.site.dev|hzero.site.dev.personality|hzero.site.dev.personality.datasource.route|hzero.site.dev.personality.datasource.route.hpfm.ds-routes.list.push</t>
+  </si>
+  <si>
+    <t>iam_menu-21</t>
+  </si>
+  <si>
     <t>hzero.site.dev.personality.datasource.route.ps.default</t>
   </si>
   <si>
@@ -2196,9 +2325,6 @@
     <t>Default permission set</t>
   </si>
   <si>
-    <t>ps</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -2247,6 +2373,9 @@
     <t>hzero-platform.datasource-route.allService</t>
   </si>
   <si>
+    <t>542</t>
+  </si>
+  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
@@ -2367,12 +2496,12 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
+    <t>134354801085124640</t>
+  </si>
+  <si>
     <t>iam_role-9</t>
   </si>
   <si>
@@ -2424,18 +2553,6 @@
     <t>#type</t>
   </si>
   <si>
-    <t>iam_role_permission-13</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2488,6 +2605,27 @@
   </si>
   <si>
     <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TEST_MENU1</t>
+  </si>
+  <si>
+    <t>30625</t>
+  </si>
+  <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>TEST_MENU2</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>TEST_MENU3</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -3791,7 +3929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3992,8 +4130,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>数据源路由插件!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>98</v>
@@ -4051,8 +4190,9 @@
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>数据源路由插件!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>107</v>
@@ -4091,7 +4231,7 @@
         <v>91</v>
       </c>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -4105,23 +4245,30 @@
         <v>114</v>
       </c>
       <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
         <v>115</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
         <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
         <v>88</v>
       </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
       <c r="Q11" t="s">
         <v>85</v>
       </c>
@@ -4129,16 +4276,13 @@
         <v>85</v>
       </c>
       <c r="S11" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" t="s">
         <v>118</v>
-      </c>
-      <c r="T11" t="s">
-        <v>85</v>
-      </c>
-      <c r="U11" t="s">
-        <v>119</v>
-      </c>
-      <c r="V11" t="s">
-        <v>90</v>
       </c>
       <c r="X11" t="s">
         <v>88</v>
@@ -4147,6 +4291,603 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" t="s">
+        <v>130</v>
+      </c>
+      <c r="T14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" t="s">
+        <v>118</v>
+      </c>
+      <c r="X15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" t="s">
+        <v>85</v>
+      </c>
+      <c r="V16" t="s">
+        <v>118</v>
+      </c>
+      <c r="X16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" t="s">
+        <v>142</v>
+      </c>
+      <c r="T17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
+        <v>118</v>
+      </c>
+      <c r="X17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>146</v>
+      </c>
+      <c r="T18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" t="s">
+        <v>118</v>
+      </c>
+      <c r="X18" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" t="s">
+        <v>118</v>
+      </c>
+      <c r="X19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" t="s">
+        <v>154</v>
+      </c>
+      <c r="T20" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" t="s">
+        <v>118</v>
+      </c>
+      <c r="X20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" t="s">
+        <v>160</v>
+      </c>
+      <c r="T21" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" t="s">
+        <v>161</v>
+      </c>
+      <c r="V21" t="s">
+        <v>90</v>
+      </c>
+      <c r="X21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4196,22 +4937,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -4222,13 +4963,14 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8">
-        <f>数据源路由插件!$E$11</f>
+        <v>167</v>
+      </c>
+      <c r="F8" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -4242,13 +4984,14 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9">
-        <f>数据源路由插件!$E$11</f>
+        <v>169</v>
+      </c>
+      <c r="F9" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -4262,13 +5005,14 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10">
-        <f>数据源路由插件!$E$11</f>
+        <v>171</v>
+      </c>
+      <c r="F10" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
@@ -4282,13 +5026,14 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11">
-        <f>数据源路由插件!$E$11</f>
+        <v>173</v>
+      </c>
+      <c r="F11" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
@@ -4297,18 +5042,19 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12">
-        <f>数据源路由插件!$E$11</f>
+        <v>176</v>
+      </c>
+      <c r="F12" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -4322,13 +5068,14 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13">
-        <f>数据源路由插件!$E$11</f>
+        <v>178</v>
+      </c>
+      <c r="F13" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
@@ -4342,13 +5089,14 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14">
-        <f>数据源路由插件!$E$11</f>
+        <v>180</v>
+      </c>
+      <c r="F14" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -4362,13 +5110,14 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15">
-        <f>数据源路由插件!$E$11</f>
+        <v>182</v>
+      </c>
+      <c r="F15" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
@@ -4382,13 +5131,14 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16">
-        <f>数据源路由插件!$E$11</f>
+        <v>184</v>
+      </c>
+      <c r="F16" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
@@ -4402,13 +5152,14 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17">
-        <f>数据源路由插件!$E$11</f>
+        <v>186</v>
+      </c>
+      <c r="F17" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -4422,13 +5173,14 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18">
-        <f>数据源路由插件!$E$11</f>
+        <v>188</v>
+      </c>
+      <c r="F18" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -4442,13 +5194,14 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19">
-        <f>数据源路由插件!$E$11</f>
+        <v>190</v>
+      </c>
+      <c r="F19" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
@@ -4462,13 +5215,14 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20">
-        <f>数据源路由插件!$E$11</f>
+        <v>192</v>
+      </c>
+      <c r="F20" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
         <v>85</v>
@@ -4487,7 +5241,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4526,10 +5280,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4544,58 +5298,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="J7" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="O7" t="s" s="76">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="Q7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="R7" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="S7" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="T7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="W7" t="s" s="77">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="X7" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="Y7" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="Z7" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -4606,19 +5360,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -4633,7 +5384,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
         <v>85</v>
@@ -4654,10 +5405,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="V8" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -4669,27 +5420,24 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
@@ -4701,7 +5449,7 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
         <v>85</v>
@@ -4722,10 +5470,10 @@
         <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="V9" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="W9" t="s">
         <v>85</v>
@@ -4737,24 +5485,24 @@
         <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="J10" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="K10" t="s">
         <v>85</v>
@@ -4762,11 +5510,12 @@
       <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <f>角色权限!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="O10" t="s">
         <v>85</v>
@@ -4787,19 +5536,19 @@
         <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="V10" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="W10" t="s">
         <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="Y10" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="Z10" t="s">
         <v>85</v>
@@ -4808,7 +5557,7 @@
         <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -4819,66 +5568,37 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s" s="78">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="80">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s" s="81">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s" s="82">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
       </c>
       <c r="M12" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G13">
-        <f>数据源路由插件!$E$11</f>
-      </c>
-      <c r="H13" t="s">
-        <v>193</v>
-      </c>
-      <c r="I13" t="s">
-        <v>194</v>
-      </c>
-      <c r="J13" t="s">
-        <v>195</v>
-      </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4888,7 +5608,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4927,43 +5647,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s" s="83">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="85">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s" s="86">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="K7" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="L7" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="O7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -4974,25 +5694,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -5012,19 +5732,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
@@ -5042,130 +5762,234 @@
         <v>92</v>
       </c>
     </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>255</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" t="s" s="87">
-        <v>215</v>
-      </c>
-      <c r="E11" t="s" s="88">
-        <v>216</v>
-      </c>
-      <c r="F11" t="s" s="89">
-        <v>217</v>
-      </c>
-      <c r="G11" t="s" s="90">
-        <v>218</v>
-      </c>
-      <c r="H11" t="s" s="91">
-        <v>219</v>
+      <c r="E11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
+        <v>248</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12">
-        <f>数据源路由插件!$E$8</f>
-      </c>
-      <c r="H12">
-        <f>菜单标签数据!$E$8</f>
+        <v>259</v>
+      </c>
+      <c r="G12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>222</v>
-      </c>
-      <c r="J12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13">
-        <f>数据源路由插件!$E$9</f>
-      </c>
-      <c r="H13">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I13" t="s">
-        <v>222</v>
-      </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
+      <c r="Q12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14">
-        <f>数据源路由插件!$E$10</f>
-      </c>
-      <c r="H14">
-        <f>菜单标签数据!$E$8</f>
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s" s="87">
+        <v>261</v>
+      </c>
+      <c r="E14" t="s" s="88">
+        <v>262</v>
+      </c>
+      <c r="F14" t="s" s="89">
+        <v>263</v>
+      </c>
+      <c r="G14" t="s" s="90">
+        <v>264</v>
+      </c>
+      <c r="H14" t="s" s="91">
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15">
-        <f>数据源路由插件!$E$11</f>
-      </c>
-      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="G15" t="n">
+        <f>数据源路由插件!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="J15" t="s">
         <v>91</v>
       </c>
       <c r="K15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" t="n">
+        <f>数据源路由插件!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" t="n">
+        <f>数据源路由插件!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" t="n">
+        <f>数据源路由插件!$E$21</f>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s">
         <v>92</v>
       </c>
     </row>
